--- a/data/surge/surgeData327.xlsx
+++ b/data/surge/surgeData327.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa.sharepoint.com/sites/SuRGE/Shared Documents/data/USGS/CH4_327_Dacey Reservoir/dataSheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{0666278D-6E77-4F2B-A291-CC1EBC3DA24E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BCBDA2A3-7A8D-4773-9172-2DBEFB7DA209}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:1_{0666278D-6E77-4F2B-A291-CC1EBC3DA24E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88997CE7-ADEF-4B86-B5F8-AA6D9A9DBFF0}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="570" windowWidth="19440" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -1738,79 +1738,76 @@
   <dimension ref="A1:BP17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="W1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="W16" sqref="W16:AD16"/>
+      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" style="25" customWidth="1"/>
-    <col min="2" max="2" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" customWidth="1"/>
+    <col min="2" max="2" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.77734375" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="9" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.54296875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.77734375" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="6" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.77734375" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="18" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="7.21875" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="8" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="6.21875" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="11" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="8.77734375" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="10" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="14" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="62" max="64" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="65" max="66" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="62" max="66" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="22.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A1" s="34" t="s">
         <v>54</v>
       </c>
@@ -1892,7 +1889,7 @@
       <c r="BO1" s="33"/>
       <c r="BP1" s="33"/>
     </row>
-    <row r="2" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
@@ -2098,7 +2095,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>187</v>
       </c>
@@ -2123,8 +2120,8 @@
       <c r="H3" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="I3">
-        <v>1318</v>
+      <c r="I3" s="32">
+        <v>0.5541666666666667</v>
       </c>
       <c r="J3" s="29">
         <v>175</v>
@@ -2187,7 +2184,7 @@
         <v>0.5227546296296296</v>
       </c>
     </row>
-    <row r="4" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>187</v>
       </c>
@@ -2212,8 +2209,8 @@
       <c r="H4" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="I4">
-        <v>1326</v>
+      <c r="I4" s="32">
+        <v>0.55972222222222223</v>
       </c>
       <c r="J4" s="29">
         <v>115</v>
@@ -2285,7 +2282,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="5" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>187</v>
       </c>
@@ -2310,8 +2307,8 @@
       <c r="H5" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="I5">
-        <v>1330</v>
+      <c r="I5" s="32">
+        <v>0.5625</v>
       </c>
       <c r="J5" s="29">
         <v>220</v>
@@ -2383,7 +2380,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="6" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>187</v>
       </c>
@@ -2408,8 +2405,8 @@
       <c r="H6" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="I6">
-        <v>1338</v>
+      <c r="I6" s="32">
+        <v>0.56805555555555554</v>
       </c>
       <c r="J6" s="29">
         <v>140</v>
@@ -2481,7 +2478,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
         <v>187</v>
       </c>
@@ -2506,8 +2503,8 @@
       <c r="H7" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="I7">
-        <v>1344</v>
+      <c r="I7" s="32">
+        <v>0.57222222222222219</v>
       </c>
       <c r="J7" s="29">
         <v>150</v>
@@ -2579,7 +2576,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="8" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>187</v>
       </c>
@@ -2604,8 +2601,8 @@
       <c r="H8" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="I8">
-        <v>1349</v>
+      <c r="I8" s="32">
+        <v>0.5756944444444444</v>
       </c>
       <c r="J8" s="29">
         <v>215</v>
@@ -2677,7 +2674,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="9" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
         <v>187</v>
       </c>
@@ -2702,8 +2699,8 @@
       <c r="H9" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="I9">
-        <v>1356</v>
+      <c r="I9" s="32">
+        <v>0.5805555555555556</v>
       </c>
       <c r="J9" s="29">
         <v>150</v>
@@ -2775,7 +2772,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="10" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
         <v>187</v>
       </c>
@@ -2800,8 +2797,8 @@
       <c r="H10" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="I10">
-        <v>1404</v>
+      <c r="I10" s="32">
+        <v>0.58611111111111114</v>
       </c>
       <c r="J10" s="29">
         <v>179</v>
@@ -2876,7 +2873,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
         <v>187</v>
       </c>
@@ -2901,8 +2898,8 @@
       <c r="H11" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="I11">
-        <v>1412</v>
+      <c r="I11" s="32">
+        <v>0.59166666666666667</v>
       </c>
       <c r="J11" s="29">
         <v>220</v>
@@ -2953,7 +2950,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
         <v>187</v>
       </c>
@@ -2978,8 +2975,8 @@
       <c r="H12" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="I12">
-        <v>1421</v>
+      <c r="I12" s="32">
+        <v>0.59791666666666665</v>
       </c>
       <c r="J12" s="29" t="s">
         <v>182</v>
@@ -3045,7 +3042,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="13" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
         <v>187</v>
       </c>
@@ -3070,8 +3067,8 @@
       <c r="H13" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="I13">
-        <v>1429</v>
+      <c r="I13" s="32">
+        <v>0.60347222222222219</v>
       </c>
       <c r="J13" s="29">
         <v>217</v>
@@ -3143,7 +3140,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
         <v>187</v>
       </c>
@@ -3168,8 +3165,8 @@
       <c r="H14" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="I14">
-        <v>1437</v>
+      <c r="I14" s="32">
+        <v>0.60902777777777783</v>
       </c>
       <c r="J14" s="29">
         <v>55</v>
@@ -3238,7 +3235,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="15" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
         <v>187</v>
       </c>
@@ -3263,8 +3260,8 @@
       <c r="H15" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="I15">
-        <v>1425</v>
+      <c r="I15" s="32">
+        <v>0.60069444444444442</v>
       </c>
       <c r="J15" s="29">
         <v>107</v>
@@ -3336,7 +3333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A16" s="25" t="s">
         <v>187</v>
       </c>
@@ -3361,8 +3358,8 @@
       <c r="H16" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="I16">
-        <v>1505</v>
+      <c r="I16" s="32">
+        <v>0.62847222222222221</v>
       </c>
       <c r="J16" s="29">
         <v>167</v>
@@ -3443,7 +3440,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A17" s="25" t="s">
         <v>187</v>
       </c>
@@ -3468,8 +3465,8 @@
       <c r="H17" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="I17">
-        <v>1456</v>
+      <c r="I17" s="32">
+        <v>0.62222222222222223</v>
       </c>
       <c r="J17" s="29">
         <v>170</v>
@@ -3564,14 +3561,14 @@
       <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="116.7265625" customWidth="1"/>
-    <col min="3" max="3" width="49.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="116.77734375" customWidth="1"/>
+    <col min="3" max="3" width="49.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>135</v>
       </c>
@@ -3582,7 +3579,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3593,7 +3590,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3604,7 +3601,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>2</v>
       </c>
@@ -3615,7 +3612,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -3626,7 +3623,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -3637,7 +3634,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -3648,7 +3645,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -3659,7 +3656,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -3670,7 +3667,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -3681,7 +3678,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -3692,7 +3689,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -3703,7 +3700,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -3714,7 +3711,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3722,7 +3719,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -3733,7 +3730,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -3741,7 +3738,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -3752,7 +3749,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -3760,7 +3757,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -3771,7 +3768,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -3782,7 +3779,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -3793,7 +3790,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -3804,7 +3801,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -3815,7 +3812,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -3826,7 +3823,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -3837,7 +3834,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -3848,7 +3845,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -3859,7 +3856,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -3870,7 +3867,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -3881,7 +3878,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>148</v>
       </c>
@@ -3892,7 +3889,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -3903,7 +3900,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -3911,7 +3908,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -3919,7 +3916,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -3927,7 +3924,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -3935,7 +3932,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>149</v>
       </c>
@@ -3943,7 +3940,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -3951,7 +3948,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>154</v>
       </c>
@@ -3959,7 +3956,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>139</v>
       </c>
@@ -3967,7 +3964,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>140</v>
       </c>
@@ -3975,7 +3972,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>141</v>
       </c>
@@ -3983,7 +3980,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>150</v>
       </c>
@@ -3991,7 +3988,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>142</v>
       </c>
@@ -3999,7 +3996,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>29</v>
       </c>
@@ -4010,7 +4007,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>30</v>
       </c>
@@ -4021,7 +4018,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>31</v>
       </c>
@@ -4032,7 +4029,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>32</v>
       </c>
@@ -4043,7 +4040,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>33</v>
       </c>
@@ -4054,7 +4051,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>151</v>
       </c>
@@ -4065,7 +4062,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>34</v>
       </c>
@@ -4076,7 +4073,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>40</v>
       </c>
@@ -4084,7 +4081,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>41</v>
       </c>
@@ -4092,7 +4089,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>42</v>
       </c>
@@ -4100,7 +4097,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>43</v>
       </c>
@@ -4108,7 +4105,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>152</v>
       </c>
@@ -4116,7 +4113,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>44</v>
       </c>
@@ -4124,7 +4121,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>143</v>
       </c>
@@ -4132,7 +4129,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>144</v>
       </c>
@@ -4140,7 +4137,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>145</v>
       </c>
@@ -4148,7 +4145,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>146</v>
       </c>
@@ -4156,7 +4153,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>153</v>
       </c>
@@ -4164,7 +4161,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>147</v>
       </c>
@@ -4172,7 +4169,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>49</v>
       </c>
@@ -4183,7 +4180,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>50</v>
       </c>
@@ -4194,7 +4191,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>51</v>
       </c>
@@ -4205,7 +4202,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>52</v>
       </c>
@@ -4216,7 +4213,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>53</v>
       </c>
@@ -4227,7 +4224,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>162</v>
       </c>
@@ -4238,7 +4235,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>164</v>
       </c>
@@ -4262,18 +4259,18 @@
       <selection activeCell="G3" sqref="G3:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="25"/>
-    <col min="3" max="3" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.26953125" customWidth="1"/>
-    <col min="6" max="6" width="22.54296875" customWidth="1"/>
-    <col min="7" max="7" width="12.26953125" customWidth="1"/>
-    <col min="9" max="9" width="14.26953125" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" style="25"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" customWidth="1"/>
+    <col min="6" max="6" width="22.5546875" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" customWidth="1"/>
+    <col min="9" max="9" width="14.21875" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
         <v>59</v>
       </c>
@@ -4289,7 +4286,7 @@
       <c r="K1" s="19"/>
       <c r="L1" s="19"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4323,7 +4320,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>187</v>
       </c>
@@ -4355,7 +4352,7 @@
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>187</v>
       </c>
@@ -4387,7 +4384,7 @@
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>187</v>
       </c>
@@ -4419,7 +4416,7 @@
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>187</v>
       </c>
@@ -4451,7 +4448,7 @@
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
         <v>187</v>
       </c>
@@ -4483,7 +4480,7 @@
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>187</v>
       </c>
@@ -4532,14 +4529,14 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.54296875" customWidth="1"/>
-    <col min="3" max="3" width="49.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.5546875" customWidth="1"/>
+    <col min="3" max="3" width="49.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>135</v>
       </c>
@@ -4550,7 +4547,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4561,7 +4558,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4572,7 +4569,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>45</v>
       </c>
@@ -4583,7 +4580,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>46</v>
       </c>
@@ -4594,7 +4591,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
         <v>47</v>
       </c>
@@ -4605,7 +4602,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>48</v>
       </c>
@@ -4613,7 +4610,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>123</v>
       </c>
@@ -4624,7 +4621,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>124</v>
       </c>
@@ -4635,7 +4632,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>125</v>
       </c>
@@ -4646,7 +4643,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>158</v>
       </c>
@@ -4663,62 +4660,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
-    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
-    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2020-10-21T13:32:44+00:00</Document_x0020_Creation_x0020_Date>
-    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </j747ac98061d40f0aa7bd47e1db5675d>
-    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
-    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Creator>
-    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </EPA_x0020_Contributor>
-    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed970698-2d60-4bab-a048-d9be527522d9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001AF5FC5DD832BE4DBA6B24560DD3ADC0" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d40b3e6283001fb57e5088f84fb23d5e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xmlns:ns3="http://schemas.microsoft.com/sharepoint.v3" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns5="8b03727f-4454-4722-b3e6-018d8dcaf2fd" xmlns:ns6="ed970698-2d60-4bab-a048-d9be527522d9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="aadbb8160917885bdc8cfb32badaafe9" ns1:_="" ns2:_="" ns3:_="" ns4:_="" ns5:_="" ns6:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5189,37 +5130,63 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845EA28A-135D-4CD8-9991-40FEAFECD172}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
+    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
+    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2020-10-21T13:32:44+00:00</Document_x0020_Creation_x0020_Date>
+    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </j747ac98061d40f0aa7bd47e1db5675d>
+    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
+    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Creator>
+    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </EPA_x0020_Contributor>
+    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed970698-2d60-4bab-a048-d9be527522d9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F4A5FCF-4499-487A-89B0-E215184C11DF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D26D44A-9508-4707-B138-18882E5BA6FE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
-    <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CACCF8C2-8A9E-4BBF-BED4-8AB7227B7C5C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5240,4 +5207,34 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D26D44A-9508-4707-B138-18882E5BA6FE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
+    <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F4A5FCF-4499-487A-89B0-E215184C11DF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845EA28A-135D-4CD8-9991-40FEAFECD172}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>